--- a/docs/shr-core-Medication.xlsx
+++ b/docs/shr-core-Medication.xlsx
@@ -147,7 +147,7 @@
   </si>
   <si>
     <t>A type of prescription drug or over-the-counter drug that is used to prevent, treat, or relieve symptoms of a disease or abnormal condition, but excluding vaccines.
-In FHIR DSTU2 and STU3, Medication lacks the identifer attribute, which is included in SHR as an extension.
+In FHIR DSTU2 and STU3, Medication lacks the identifier attribute, which is included in SHR as an extension.
 DSTU2 lacks the status attribute, which is required by US-Core.
 Batch is 0..1 in FHIR R4, and accordingly is restricted here.</t>
   </si>
